--- a/docs/Examples/Example1_Gas_Cell_Calibration/Weak_Diads.xlsx
+++ b/docs/Examples/Example1_Gas_Cell_Calibration/Weak_Diads.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="76">
   <si>
     <t>filename</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Diad1_Voigt_Sigma</t>
   </si>
   <si>
-    <t>Residual_Diad1</t>
+    <t>Diad1_Residual</t>
   </si>
   <si>
     <t>Diad1_Prop_Lor</t>
@@ -67,7 +67,7 @@
     <t>Diad2_Voigt_Gamma</t>
   </si>
   <si>
-    <t>Residual_Diad2</t>
+    <t>Diad2_Residual</t>
   </si>
   <si>
     <t>Diad2_Prop_Lor</t>
@@ -106,27 +106,111 @@
     <t>C13_Sigma</t>
   </si>
   <si>
+    <t>Diad2_Gauss_Cent</t>
+  </si>
+  <si>
+    <t>Diad2_Gauss_Area</t>
+  </si>
+  <si>
+    <t>Diad2_Gauss_Sigma</t>
+  </si>
+  <si>
+    <t>Diad1_Gauss_Cent</t>
+  </si>
+  <si>
+    <t>Diad1_Gauss_Area</t>
+  </si>
+  <si>
+    <t>Diad1_Gauss_Sigma</t>
+  </si>
+  <si>
+    <t>Cap19-05X1</t>
+  </si>
+  <si>
+    <t>Cap19-05X2</t>
+  </si>
+  <si>
+    <t>Cap19-06X1</t>
+  </si>
+  <si>
+    <t>Cap19-06X2</t>
+  </si>
+  <si>
     <t>Cap19-07X1</t>
   </si>
   <si>
+    <t>Cap19-07X2</t>
+  </si>
+  <si>
+    <t>Cap19-08X1</t>
+  </si>
+  <si>
+    <t>Cap19-08X2</t>
+  </si>
+  <si>
+    <t>Cap19-12X1</t>
+  </si>
+  <si>
+    <t>Cap19-12X2</t>
+  </si>
+  <si>
+    <t>Cap19-17X1</t>
+  </si>
+  <si>
+    <t>Cap19-17X2</t>
+  </si>
+  <si>
+    <t>Cap19-18X1</t>
+  </si>
+  <si>
+    <t>Cap19-18X2</t>
+  </si>
+  <si>
     <t>FG04_31_MI</t>
   </si>
   <si>
+    <t>FG04_31_MI4</t>
+  </si>
+  <si>
+    <t>POC25</t>
+  </si>
+  <si>
     <t>POC46</t>
   </si>
   <si>
+    <t>POC47</t>
+  </si>
+  <si>
+    <t>POC48</t>
+  </si>
+  <si>
+    <t>POC49</t>
+  </si>
+  <si>
     <t>POC50 (Sub BG)</t>
   </si>
   <si>
+    <t>POC50</t>
+  </si>
+  <si>
     <t>POC51 (Sub BG)</t>
   </si>
   <si>
+    <t>POC51</t>
+  </si>
+  <si>
     <t>POC52 (Sub BG)</t>
   </si>
   <si>
+    <t>POC52</t>
+  </si>
+  <si>
     <t>POC53 (Sub BG)</t>
   </si>
   <si>
+    <t>POC53</t>
+  </si>
+  <si>
     <t>POC54 (Sub BG)</t>
   </si>
   <si>
@@ -136,10 +220,19 @@
     <t>POC55 (Sub BG)</t>
   </si>
   <si>
+    <t>POC55</t>
+  </si>
+  <si>
     <t>POC56 (Sub BG)</t>
   </si>
   <si>
+    <t>POC56</t>
+  </si>
+  <si>
     <t>POC57-0.04 (Sub BG)</t>
+  </si>
+  <si>
+    <t>POC57-0.04</t>
   </si>
   <si>
     <t>POC58 (Sub BG)</t>
@@ -506,13 +599,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE15"/>
+  <dimension ref="A1:AK40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:37">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,942 +696,3008 @@
       <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:31">
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C2">
-        <v>102.7355528387473</v>
+        <v>102.8055153685998</v>
       </c>
       <c r="D2">
-        <v>1286.700139046325</v>
+        <v>1286.62112561949</v>
       </c>
       <c r="E2">
-        <v>45.64277569653503</v>
+        <v>224.8699792538317</v>
       </c>
       <c r="F2">
-        <v>1286.700139046325</v>
+        <v>1286.62117562199</v>
       </c>
       <c r="G2">
-        <v>69.63406721881563</v>
+        <v>337.9744221053846</v>
       </c>
       <c r="H2">
-        <v>0.7153550436589305</v>
+        <v>0.6329371946296867</v>
       </c>
       <c r="I2">
-        <v>1.685106353135197</v>
+        <v>1.712222575131729</v>
       </c>
       <c r="J2">
-        <v>4.917294349482404E-11</v>
+        <v>0.3211264831715998</v>
       </c>
       <c r="K2">
-        <v>1.430710087317861</v>
+        <v>1.265874389259373</v>
       </c>
       <c r="L2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2">
+        <v>1389.42669099059</v>
+      </c>
+      <c r="N2">
+        <v>333.7037025759775</v>
+      </c>
+      <c r="O2">
+        <v>1389.42669099059</v>
+      </c>
+      <c r="P2">
+        <v>457.6453506019556</v>
+      </c>
+      <c r="Q2">
+        <v>0.6087078350713047</v>
+      </c>
+      <c r="S2">
+        <v>1.985439053405572</v>
+      </c>
+      <c r="T2">
+        <v>0.1708216737030562</v>
+      </c>
+      <c r="U2">
+        <v>1.217415670142609</v>
+      </c>
+      <c r="V2" t="s">
+        <v>75</v>
+      </c>
+      <c r="W2">
+        <v>1266.278287224663</v>
+      </c>
+      <c r="X2">
+        <v>31.917010024409</v>
+      </c>
+      <c r="Y2">
+        <v>0.5816846785610099</v>
+      </c>
+      <c r="Z2">
+        <v>1410.606548793483</v>
+      </c>
+      <c r="AA2">
+        <v>25.878256201734</v>
+      </c>
+      <c r="AB2">
+        <v>0.5920903813247913</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>102.7595123022015</v>
+      </c>
+      <c r="D3">
+        <v>1286.620737777116</v>
+      </c>
+      <c r="E3">
+        <v>207.8817213379269</v>
+      </c>
+      <c r="F3">
+        <v>1286.620787779616</v>
+      </c>
+      <c r="G3">
+        <v>295.2299525223052</v>
+      </c>
+      <c r="H3">
+        <v>0.6427503180037304</v>
+      </c>
+      <c r="I3">
+        <v>2.221886813156611</v>
+      </c>
+      <c r="J3">
+        <v>0.1132358010042538</v>
+      </c>
+      <c r="K3">
+        <v>1.285500636007461</v>
+      </c>
+      <c r="L3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3">
+        <v>1389.380300081818</v>
+      </c>
+      <c r="N3">
+        <v>322.5666328983395</v>
+      </c>
+      <c r="O3">
+        <v>1389.380300081818</v>
+      </c>
+      <c r="P3">
+        <v>429.3562961882853</v>
+      </c>
+      <c r="Q3">
+        <v>0.5958709074382218</v>
+      </c>
+      <c r="S3">
+        <v>2.612715139152381</v>
+      </c>
+      <c r="T3">
+        <v>0.1456518904844851</v>
+      </c>
+      <c r="U3">
+        <v>1.191741814876444</v>
+      </c>
+      <c r="V3" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3">
+        <v>1266.367560353047</v>
+      </c>
+      <c r="X3">
+        <v>34.25109077049164</v>
+      </c>
+      <c r="Y3">
+        <v>1.001023929738878</v>
+      </c>
+      <c r="Z3">
+        <v>1410.654919000704</v>
+      </c>
+      <c r="AA3">
+        <v>33.18606235689882</v>
+      </c>
+      <c r="AB3">
+        <v>0.615225057399115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>102.9773763059106</v>
+      </c>
+      <c r="D4">
+        <v>1286.142245699882</v>
+      </c>
+      <c r="E4">
+        <v>917.3594081365783</v>
+      </c>
+      <c r="F4">
+        <v>1286.142295702382</v>
+      </c>
+      <c r="G4">
+        <v>1677.688283257231</v>
+      </c>
+      <c r="H4">
+        <v>0.7227764807803613</v>
+      </c>
+      <c r="I4">
+        <v>2.472196242527063</v>
+      </c>
+      <c r="J4">
+        <v>0.4923355741126655</v>
+      </c>
+      <c r="K4">
+        <v>1.445552961560723</v>
+      </c>
+      <c r="L4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4">
+        <v>1389.119722010793</v>
+      </c>
+      <c r="N4">
+        <v>1506.495631113912</v>
+      </c>
+      <c r="O4">
+        <v>1389.119672008293</v>
+      </c>
+      <c r="P4">
+        <v>2430.792023332041</v>
+      </c>
+      <c r="Q4">
+        <v>0.6616899723163355</v>
+      </c>
+      <c r="S4">
+        <v>2.750016600539981</v>
+      </c>
+      <c r="T4">
+        <v>0.3939475930486522</v>
+      </c>
+      <c r="U4">
+        <v>1.323379944632671</v>
+      </c>
+      <c r="V4" t="s">
+        <v>75</v>
+      </c>
+      <c r="W4">
+        <v>1265.963500884853</v>
+      </c>
+      <c r="X4">
+        <v>154.9577410879307</v>
+      </c>
+      <c r="Y4">
+        <v>0.8572097259881816</v>
+      </c>
+      <c r="Z4">
+        <v>1410.405014543838</v>
+      </c>
+      <c r="AA4">
+        <v>198.169741166801</v>
+      </c>
+      <c r="AB4">
+        <v>0.8589110189794424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>102.9411744872452</v>
+      </c>
+      <c r="D5">
+        <v>1286.176075535397</v>
+      </c>
+      <c r="E5">
+        <v>1178.920274869484</v>
+      </c>
+      <c r="F5">
+        <v>1286.176125537897</v>
+      </c>
+      <c r="G5">
+        <v>2047.286828634192</v>
+      </c>
+      <c r="H5">
+        <v>0.7035596424006388</v>
+      </c>
+      <c r="I5">
+        <v>3.024880635938019</v>
+      </c>
+      <c r="J5">
+        <v>0.426795640647011</v>
+      </c>
+      <c r="K5">
+        <v>1.407119284801278</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5">
+        <v>1389.117350027643</v>
+      </c>
+      <c r="N5">
+        <v>1891.094592570812</v>
+      </c>
+      <c r="O5">
+        <v>1389.117300025143</v>
+      </c>
+      <c r="P5">
+        <v>2977.71987463466</v>
+      </c>
+      <c r="Q5">
+        <v>0.6441972777587152</v>
+      </c>
+      <c r="S5">
+        <v>3.877138528829796</v>
+      </c>
+      <c r="T5">
+        <v>0.4003095251472715</v>
+      </c>
+      <c r="U5">
+        <v>1.28839455551743</v>
+      </c>
+      <c r="V5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W5">
+        <v>1265.902287765665</v>
+      </c>
+      <c r="X5">
+        <v>219.9701079470312</v>
+      </c>
+      <c r="Y5">
+        <v>0.8165024057532598</v>
+      </c>
+      <c r="Z5">
+        <v>1410.407435042715</v>
+      </c>
+      <c r="AA5">
+        <v>259.8492440193546</v>
+      </c>
+      <c r="AB5">
+        <v>0.7470581191086467</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>102.7355556291607</v>
+      </c>
+      <c r="D6">
+        <v>1286.70013838618</v>
+      </c>
+      <c r="E6">
+        <v>45.64277477757228</v>
+      </c>
+      <c r="F6">
+        <v>1286.70013838618</v>
+      </c>
+      <c r="G6">
+        <v>69.6341551832532</v>
+      </c>
+      <c r="H6">
+        <v>0.7153559476429557</v>
+      </c>
+      <c r="I6">
+        <v>1.68510628177071</v>
+      </c>
+      <c r="J6">
+        <v>2.374417329420453E-11</v>
+      </c>
+      <c r="K6">
+        <v>1.430711895285911</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6">
+        <v>1389.435694015341</v>
+      </c>
+      <c r="N6">
+        <v>84.35591227037479</v>
+      </c>
+      <c r="O6">
+        <v>1389.435694015341</v>
+      </c>
+      <c r="P6">
+        <v>111.8631227516313</v>
+      </c>
+      <c r="Q6">
+        <v>0.565008670768442</v>
+      </c>
+      <c r="S6">
+        <v>1.582586983492386</v>
+      </c>
+      <c r="T6">
+        <v>0.275158938463247</v>
+      </c>
+      <c r="U6">
+        <v>1.130017341536884</v>
+      </c>
+      <c r="V6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>102.6855305035967</v>
+      </c>
+      <c r="D7">
+        <v>1286.70418509143</v>
+      </c>
+      <c r="E7">
+        <v>62.6941056964332</v>
+      </c>
+      <c r="F7">
+        <v>1286.70423509393</v>
+      </c>
+      <c r="G7">
+        <v>85.94671542850986</v>
+      </c>
+      <c r="H7">
+        <v>0.6439884862722499</v>
+      </c>
+      <c r="I7">
+        <v>1.916522228288932</v>
+      </c>
+      <c r="J7">
+        <v>4.916126229603801E-05</v>
+      </c>
+      <c r="K7">
+        <v>1.2879769725445</v>
+      </c>
+      <c r="L7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7">
+        <v>1389.389815600027</v>
+      </c>
+      <c r="N7">
+        <v>96.67245382210307</v>
+      </c>
+      <c r="O7">
+        <v>1389.389765597527</v>
+      </c>
+      <c r="P7">
+        <v>126.5953999079988</v>
+      </c>
+      <c r="Q7">
+        <v>0.615108553876341</v>
+      </c>
+      <c r="S7">
+        <v>3.106863167179763</v>
+      </c>
+      <c r="T7">
+        <v>8.632822753706915E-06</v>
+      </c>
+      <c r="U7">
+        <v>1.230217107752682</v>
+      </c>
+      <c r="V7" t="s">
+        <v>75</v>
+      </c>
+      <c r="W7">
+        <v>1266.03239246957</v>
+      </c>
+      <c r="X7">
+        <v>16.33201035347824</v>
+      </c>
+      <c r="Y7">
+        <v>0.5297898733834973</v>
+      </c>
+      <c r="Z7">
+        <v>1410.688592798415</v>
+      </c>
+      <c r="AA7">
+        <v>5.495748459345133</v>
+      </c>
+      <c r="AB7">
+        <v>0.3395773296524447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>102.7989411772494</v>
+      </c>
+      <c r="D8">
+        <v>1286.534957215419</v>
+      </c>
+      <c r="E8">
+        <v>219.0904981651044</v>
+      </c>
+      <c r="F8">
+        <v>1286.534957215419</v>
+      </c>
+      <c r="G8">
+        <v>331.3308547987886</v>
+      </c>
+      <c r="H8">
+        <v>0.6563681234308554</v>
+      </c>
+      <c r="I8">
+        <v>1.897216558498942</v>
+      </c>
+      <c r="J8">
+        <v>0.2382096989371344</v>
+      </c>
+      <c r="K8">
+        <v>1.312736246861711</v>
+      </c>
+      <c r="L8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8">
+        <v>1389.333948395168</v>
+      </c>
+      <c r="N8">
+        <v>320.9075934659407</v>
+      </c>
+      <c r="O8">
+        <v>1389.333898392668</v>
+      </c>
+      <c r="P8">
+        <v>455.4696614904674</v>
+      </c>
+      <c r="Q8">
+        <v>0.6156895563069489</v>
+      </c>
+      <c r="S8">
+        <v>3.096214638240027</v>
+      </c>
+      <c r="T8">
+        <v>0.2374268741646016</v>
+      </c>
+      <c r="U8">
+        <v>1.231379112613898</v>
+      </c>
+      <c r="V8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z8">
+        <v>1410.623612295368</v>
+      </c>
+      <c r="AA8">
+        <v>46.34941515864171</v>
+      </c>
+      <c r="AB8">
+        <v>0.5152460366516455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <v>102.782511982499</v>
+      </c>
+      <c r="D9">
+        <v>1286.576616114922</v>
+      </c>
+      <c r="E9">
+        <v>211.2805710731851</v>
+      </c>
+      <c r="F9">
+        <v>1286.576666117422</v>
+      </c>
+      <c r="G9">
+        <v>312.9772353452391</v>
+      </c>
+      <c r="H9">
+        <v>0.6482254732259982</v>
+      </c>
+      <c r="I9">
+        <v>2.111527539151958</v>
+      </c>
+      <c r="J9">
+        <v>0.2123050949392088</v>
+      </c>
+      <c r="K9">
+        <v>1.296450946451996</v>
+      </c>
+      <c r="L9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9">
+        <v>1389.359178099921</v>
+      </c>
+      <c r="N9">
+        <v>325.1557821369101</v>
+      </c>
+      <c r="O9">
+        <v>1389.359178099921</v>
+      </c>
+      <c r="P9">
+        <v>433.7445526309125</v>
+      </c>
+      <c r="Q9">
+        <v>0.5987218806020598</v>
+      </c>
+      <c r="S9">
+        <v>1.96553065656402</v>
+      </c>
+      <c r="T9">
+        <v>0.1379571071935031</v>
+      </c>
+      <c r="U9">
+        <v>1.19744376120412</v>
+      </c>
+      <c r="V9" t="s">
+        <v>75</v>
+      </c>
+      <c r="W9">
+        <v>1266.285003745727</v>
+      </c>
+      <c r="X9">
+        <v>29.45572498453169</v>
+      </c>
+      <c r="Y9">
+        <v>0.6247004172709424</v>
+      </c>
+      <c r="Z9">
+        <v>1410.582920339686</v>
+      </c>
+      <c r="AA9">
+        <v>40.29198946978335</v>
+      </c>
+      <c r="AB9">
+        <v>0.6150414397750836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
         <v>44</v>
       </c>
-      <c r="M2">
-        <v>1389.435691885072</v>
-      </c>
-      <c r="N2">
-        <v>84.35536979473895</v>
-      </c>
-      <c r="O2">
-        <v>1389.435691885072</v>
-      </c>
-      <c r="P2">
-        <v>111.8623087078768</v>
-      </c>
-      <c r="Q2">
-        <v>0.565015676812242</v>
-      </c>
-      <c r="S2">
-        <v>1.582588264727442</v>
-      </c>
-      <c r="T2">
-        <v>0.2751215587282394</v>
-      </c>
-      <c r="U2">
-        <v>1.130031353624484</v>
-      </c>
-      <c r="V2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3">
-        <v>103.2067815384273</v>
-      </c>
-      <c r="D3">
-        <v>1285.207347638077</v>
-      </c>
-      <c r="E3">
-        <v>40.96563779249253</v>
-      </c>
-      <c r="F3">
-        <v>1285.207347638077</v>
-      </c>
-      <c r="G3">
-        <v>113.3240124842758</v>
-      </c>
-      <c r="H3">
-        <v>0.9398538403250334</v>
-      </c>
-      <c r="I3">
-        <v>1.393696588414568</v>
-      </c>
-      <c r="J3">
-        <v>0.8646297045106316</v>
-      </c>
-      <c r="K3">
-        <v>1.879707680650067</v>
-      </c>
-      <c r="L3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3">
-        <v>1388.414129176505</v>
-      </c>
-      <c r="N3">
-        <v>70.14296243134308</v>
-      </c>
-      <c r="O3">
-        <v>1388.414129176505</v>
-      </c>
-      <c r="P3">
-        <v>163.1214547410223</v>
-      </c>
-      <c r="Q3">
-        <v>0.9312459289078252</v>
-      </c>
-      <c r="S3">
-        <v>1.479040830800992</v>
-      </c>
-      <c r="T3">
-        <v>0.4534769741222406</v>
-      </c>
-      <c r="U3">
-        <v>1.86249185781565</v>
-      </c>
-      <c r="V3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4">
-        <v>102.7519483973949</v>
-      </c>
-      <c r="D4">
-        <v>1286.640256927248</v>
-      </c>
-      <c r="E4">
-        <v>751.1716596445422</v>
-      </c>
-      <c r="F4">
-        <v>1286.640306929748</v>
-      </c>
-      <c r="G4">
-        <v>1063.82523054222</v>
-      </c>
-      <c r="H4">
-        <v>0.6156385635178592</v>
-      </c>
-      <c r="I4">
-        <v>3.068712292309806</v>
-      </c>
-      <c r="J4">
-        <v>0.2313002711888554</v>
-      </c>
-      <c r="K4">
-        <v>1.231277127035718</v>
-      </c>
-      <c r="L4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4">
-        <v>1389.392255327143</v>
-      </c>
-      <c r="N4">
-        <v>1181.133885237375</v>
-      </c>
-      <c r="O4">
-        <v>1389.392255327143</v>
-      </c>
-      <c r="P4">
-        <v>1584.768041869818</v>
-      </c>
-      <c r="Q4">
-        <v>0.5888388980464061</v>
-      </c>
-      <c r="S4">
-        <v>4.710172805017255</v>
-      </c>
-      <c r="T4">
-        <v>0.2053619123866054</v>
-      </c>
-      <c r="U4">
-        <v>1.177677796092812</v>
-      </c>
-      <c r="V4" t="s">
-        <v>44</v>
-      </c>
-      <c r="W4">
-        <v>1266.296024994799</v>
-      </c>
-      <c r="X4">
-        <v>95.67188209505652</v>
-      </c>
-      <c r="Y4">
-        <v>0.6556336653585895</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5">
-        <v>102.7258954309743</v>
-      </c>
-      <c r="D5">
-        <v>1286.691111042955</v>
-      </c>
-      <c r="E5">
-        <v>259.4843217046434</v>
-      </c>
-      <c r="F5">
-        <v>1286.691111042955</v>
-      </c>
-      <c r="G5">
-        <v>351.6671732206234</v>
-      </c>
-      <c r="H5">
-        <v>0.5973626954947653</v>
-      </c>
-      <c r="I5">
-        <v>2.29798948362695</v>
-      </c>
-      <c r="J5">
-        <v>0.1914278813730596</v>
-      </c>
-      <c r="K5">
-        <v>1.194725390989531</v>
-      </c>
-      <c r="L5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5">
-        <v>1389.41700647393</v>
-      </c>
-      <c r="N5">
-        <v>403.8520617289578</v>
-      </c>
-      <c r="O5">
-        <v>1389.41700647393</v>
-      </c>
-      <c r="P5">
-        <v>522.7437400078402</v>
-      </c>
-      <c r="Q5">
-        <v>0.5793486444519659</v>
-      </c>
-      <c r="S5">
-        <v>2.411133083540473</v>
-      </c>
-      <c r="T5">
-        <v>0.1472285523441925</v>
-      </c>
-      <c r="U5">
-        <v>1.158697288903932</v>
-      </c>
-      <c r="V5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6">
-        <v>102.7406994187684</v>
-      </c>
-      <c r="D6">
-        <v>1286.696296217016</v>
-      </c>
-      <c r="E6">
-        <v>185.218371656568</v>
-      </c>
-      <c r="F6">
-        <v>1286.696296217016</v>
-      </c>
-      <c r="G6">
-        <v>259.4361676628798</v>
-      </c>
-      <c r="H6">
-        <v>0.6007376976812586</v>
-      </c>
-      <c r="I6">
-        <v>2.509024085139773</v>
-      </c>
-      <c r="J6">
-        <v>0.2681582832591315</v>
-      </c>
-      <c r="K6">
-        <v>1.201475395362517</v>
-      </c>
-      <c r="L6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6">
-        <v>1389.436995635784</v>
-      </c>
-      <c r="N6">
-        <v>291.58930335889</v>
-      </c>
-      <c r="O6">
-        <v>1389.436995635784</v>
-      </c>
-      <c r="P6">
-        <v>384.8822639928185</v>
-      </c>
-      <c r="Q6">
-        <v>0.5797299248985225</v>
-      </c>
-      <c r="S6">
-        <v>2.577509714141717</v>
-      </c>
-      <c r="T6">
-        <v>0.2013589657192582</v>
-      </c>
-      <c r="U6">
-        <v>1.159459849797045</v>
-      </c>
-      <c r="V6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7">
-        <v>102.7366277705687</v>
-      </c>
-      <c r="D7">
-        <v>1286.687120809308</v>
-      </c>
-      <c r="E7">
-        <v>254.3477775824337</v>
-      </c>
-      <c r="F7">
-        <v>1286.687120809308</v>
-      </c>
-      <c r="G7">
-        <v>347.311572470515</v>
-      </c>
-      <c r="H7">
-        <v>0.5790316144537906</v>
-      </c>
-      <c r="I7">
-        <v>3.115346713800447</v>
-      </c>
-      <c r="J7">
-        <v>0.3021065730387469</v>
-      </c>
-      <c r="K7">
-        <v>1.158063228907581</v>
-      </c>
-      <c r="L7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7">
-        <v>1389.423748579876</v>
-      </c>
-      <c r="N7">
-        <v>387.2692618086478</v>
-      </c>
-      <c r="O7">
-        <v>1389.423748579876</v>
-      </c>
-      <c r="P7">
-        <v>499.6386038067232</v>
-      </c>
-      <c r="Q7">
-        <v>0.583378815881791</v>
-      </c>
-      <c r="S7">
-        <v>2.997285244463144</v>
-      </c>
-      <c r="T7">
-        <v>0.1164820711046523</v>
-      </c>
-      <c r="U7">
-        <v>1.166757631763582</v>
-      </c>
-      <c r="V7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8">
-        <v>102.7603097109386</v>
-      </c>
-      <c r="D8">
-        <v>1286.675187894008</v>
-      </c>
-      <c r="E8">
-        <v>223.7093662747214</v>
-      </c>
-      <c r="F8">
-        <v>1286.675187894008</v>
-      </c>
-      <c r="G8">
-        <v>293.2983437751398</v>
-      </c>
-      <c r="H8">
-        <v>0.6014461085701798</v>
-      </c>
-      <c r="I8">
-        <v>3.205211550438374</v>
-      </c>
-      <c r="J8">
-        <v>0.09726002304490777</v>
-      </c>
-      <c r="K8">
-        <v>1.20289221714036</v>
-      </c>
-      <c r="L8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8">
-        <v>1389.435497604946</v>
-      </c>
-      <c r="N8">
-        <v>352.3202727574256</v>
-      </c>
-      <c r="O8">
-        <v>1389.435497604946</v>
-      </c>
-      <c r="P8">
-        <v>456.9854203612545</v>
-      </c>
-      <c r="Q8">
-        <v>0.5796976732342081</v>
-      </c>
-      <c r="S8">
-        <v>3.161223665281187</v>
-      </c>
-      <c r="T8">
-        <v>0.1510905254801318</v>
-      </c>
-      <c r="U8">
-        <v>1.159395346468416</v>
-      </c>
-      <c r="V8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9">
-        <v>102.7587502319202</v>
-      </c>
-      <c r="D9">
-        <v>1286.68379448141</v>
-      </c>
-      <c r="E9">
-        <v>190.116561439198</v>
-      </c>
-      <c r="F9">
-        <v>1286.68379448141</v>
-      </c>
-      <c r="G9">
-        <v>270.5241047919375</v>
-      </c>
-      <c r="H9">
-        <v>0.6081692023420906</v>
-      </c>
-      <c r="I9">
-        <v>2.532878139957663</v>
-      </c>
-      <c r="J9">
-        <v>0.2806522382733285</v>
-      </c>
-      <c r="K9">
-        <v>1.216338404684181</v>
-      </c>
-      <c r="L9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9">
-        <v>1389.44254471333</v>
-      </c>
-      <c r="N9">
-        <v>306.1421982753419</v>
-      </c>
-      <c r="O9">
-        <v>1389.44254471333</v>
-      </c>
-      <c r="P9">
-        <v>391.547813151265</v>
-      </c>
-      <c r="Q9">
-        <v>0.5789748053333181</v>
-      </c>
-      <c r="S9">
-        <v>3.305149667770905</v>
-      </c>
-      <c r="T9">
-        <v>0.113072289943761</v>
-      </c>
-      <c r="U9">
-        <v>1.157949610666636</v>
-      </c>
-      <c r="V9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
       <c r="C10">
-        <v>102.7593749865075</v>
+        <v>102.9755248752044</v>
       </c>
       <c r="D10">
-        <v>1286.683774602142</v>
+        <v>1286.103201711938</v>
       </c>
       <c r="E10">
-        <v>183.4342371441711</v>
+        <v>892.9410189163798</v>
       </c>
       <c r="F10">
-        <v>1286.683824604642</v>
+        <v>1286.103251714438</v>
       </c>
       <c r="G10">
-        <v>239.8638224238165</v>
+        <v>1618.438476843857</v>
       </c>
       <c r="H10">
-        <v>0.6142174413984022</v>
+        <v>0.7343368573019877</v>
       </c>
       <c r="I10">
-        <v>3.215684560932652</v>
+        <v>2.262329279986424</v>
       </c>
       <c r="J10">
-        <v>5.551115123125783E-17</v>
+        <v>0.4266996159761202</v>
       </c>
       <c r="K10">
-        <v>1.228434882796804</v>
+        <v>1.468673714603975</v>
       </c>
       <c r="L10" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="M10">
-        <v>1389.443199591149</v>
+        <v>1389.078826592143</v>
       </c>
       <c r="N10">
-        <v>302.0058467088046</v>
+        <v>1458.63022563066</v>
       </c>
       <c r="O10">
-        <v>1389.443199591149</v>
+        <v>1389.078776589643</v>
       </c>
       <c r="P10">
-        <v>375.3383428274568</v>
+        <v>2389.728936990567</v>
       </c>
       <c r="Q10">
-        <v>0.5829445223313513</v>
+        <v>0.6626527552395255</v>
       </c>
       <c r="S10">
-        <v>3.463253920250559</v>
+        <v>2.563694116461604</v>
       </c>
       <c r="T10">
-        <v>1.865175958126741E-09</v>
+        <v>0.4310921634931242</v>
       </c>
       <c r="U10">
-        <v>1.165889044662703</v>
+        <v>1.325305510479051</v>
       </c>
       <c r="V10" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="W10">
-        <v>1266.377029306745</v>
+        <v>1265.878050360673</v>
       </c>
       <c r="X10">
-        <v>18.42377943879228</v>
+        <v>151.4901264011965</v>
       </c>
       <c r="Y10">
-        <v>0.5582866595512076</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
+        <v>0.8514218655297242</v>
+      </c>
+      <c r="Z10">
+        <v>1410.363572727269</v>
+      </c>
+      <c r="AA10">
+        <v>205.0147031282203</v>
+      </c>
+      <c r="AB10">
+        <v>0.7869941390924958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
       <c r="A11" s="1">
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C11">
-        <v>102.7277323425772</v>
+        <v>102.9471211917717</v>
       </c>
       <c r="D11">
-        <v>1286.7075319091</v>
+        <v>1286.145915720854</v>
       </c>
       <c r="E11">
-        <v>159.8265968244919</v>
+        <v>532.4622655629898</v>
       </c>
       <c r="F11">
-        <v>1286.7075319091</v>
+        <v>1286.145965723354</v>
       </c>
       <c r="G11">
-        <v>222.7444315297619</v>
+        <v>947.9248007905824</v>
       </c>
       <c r="H11">
-        <v>0.6300311320566423</v>
+        <v>0.7302193337241845</v>
       </c>
       <c r="I11">
-        <v>2.62020025914697</v>
+        <v>1.945236967206121</v>
       </c>
       <c r="J11">
-        <v>0.1149422977841872</v>
+        <v>0.3935272347030235</v>
       </c>
       <c r="K11">
-        <v>1.260062264113285</v>
+        <v>1.460438667448369</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="M11">
-        <v>1389.435264251677</v>
+        <v>1389.093136917625</v>
       </c>
       <c r="N11">
-        <v>266.7663051367225</v>
+        <v>878.2268313448468</v>
       </c>
       <c r="O11">
-        <v>1389.435264251677</v>
+        <v>1389.093086915125</v>
       </c>
       <c r="P11">
-        <v>332.7715524625412</v>
+        <v>1384.96974145334</v>
       </c>
       <c r="Q11">
-        <v>0.569902273896572</v>
+        <v>0.6450101722653963</v>
       </c>
       <c r="S11">
-        <v>2.776486003270527</v>
+        <v>2.495161496144585</v>
       </c>
       <c r="T11">
-        <v>0.08455127786298439</v>
+        <v>0.4009644572798871</v>
       </c>
       <c r="U11">
-        <v>1.139804547793144</v>
+        <v>1.290020344530793</v>
       </c>
       <c r="V11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31">
+        <v>75</v>
+      </c>
+      <c r="W11">
+        <v>1265.891921943332</v>
+      </c>
+      <c r="X11">
+        <v>92.59047341247063</v>
+      </c>
+      <c r="Y11">
+        <v>0.7050061609279521</v>
+      </c>
+      <c r="Z11">
+        <v>1410.415977065308</v>
+      </c>
+      <c r="AA11">
+        <v>100.7206245461838</v>
+      </c>
+      <c r="AB11">
+        <v>0.7483528823682739</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
       <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C12">
-        <v>102.7279617431129</v>
+        <v>102.8160607084301</v>
       </c>
       <c r="D12">
-        <v>1286.714472305402</v>
+        <v>1286.343441281018</v>
       </c>
       <c r="E12">
-        <v>133.0430227052952</v>
+        <v>241.9548967284532</v>
       </c>
       <c r="F12">
-        <v>1286.714472305402</v>
+        <v>1286.343441281018</v>
       </c>
       <c r="G12">
-        <v>177.1374175240348</v>
+        <v>373.8150912671353</v>
       </c>
       <c r="H12">
-        <v>0.6281186575022535</v>
+        <v>0.6847551349324904</v>
       </c>
       <c r="I12">
-        <v>2.591405711849526</v>
+        <v>2.279877923422402</v>
       </c>
       <c r="J12">
-        <v>1.657987146463924E-07</v>
+        <v>0.1765132513866913</v>
       </c>
       <c r="K12">
-        <v>1.256237315004507</v>
+        <v>1.369510269864981</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="M12">
-        <v>1389.442434048515</v>
+        <v>1389.159501989448</v>
       </c>
       <c r="N12">
-        <v>239.2283777414152</v>
+        <v>368.3655301998449</v>
       </c>
       <c r="O12">
-        <v>1389.442434048515</v>
+        <v>1389.159501989448</v>
       </c>
       <c r="P12">
-        <v>302.9381426108981</v>
+        <v>527.8979749029871</v>
       </c>
       <c r="Q12">
-        <v>0.5076533958941518</v>
+        <v>0.6178627579201561</v>
       </c>
       <c r="S12">
-        <v>2.563198989602151</v>
+        <v>1.932662218861336</v>
       </c>
       <c r="T12">
-        <v>0.4525908214842085</v>
+        <v>0.2547802975462462</v>
       </c>
       <c r="U12">
-        <v>1.015306791788304</v>
+        <v>1.235725515840312</v>
       </c>
       <c r="V12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31">
+        <v>75</v>
+      </c>
+      <c r="Z12">
+        <v>1410.385093457566</v>
+      </c>
+      <c r="AA12">
+        <v>34.70822495304924</v>
+      </c>
+      <c r="AB12">
+        <v>0.6754823094544806</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37">
       <c r="A13" s="1">
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C13">
-        <v>102.7589608325966</v>
+        <v>102.8254154633746</v>
       </c>
       <c r="D13">
-        <v>1286.687863435186</v>
+        <v>1286.497233726971</v>
       </c>
       <c r="E13">
-        <v>129.6909877211817</v>
+        <v>443.9272284304219</v>
       </c>
       <c r="F13">
-        <v>1286.687863435186</v>
+        <v>1286.497283729471</v>
       </c>
       <c r="G13">
-        <v>172.1620457475671</v>
+        <v>683.2155559399258</v>
       </c>
       <c r="H13">
-        <v>0.5977070268591143</v>
+        <v>0.6645882365575757</v>
       </c>
       <c r="I13">
-        <v>2.071225189539845</v>
+        <v>3.016619788683445</v>
       </c>
       <c r="J13">
-        <v>0.1280438538517664</v>
+        <v>0.2504116522473223</v>
       </c>
       <c r="K13">
-        <v>1.195414053718229</v>
+        <v>1.329176473115151</v>
       </c>
       <c r="L13" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="M13">
-        <v>1389.446824267783</v>
+        <v>1389.322699192846</v>
       </c>
       <c r="N13">
-        <v>211.3186852425641</v>
+        <v>680.2681554922744</v>
       </c>
       <c r="O13">
-        <v>1389.446824267783</v>
+        <v>1389.322699192846</v>
       </c>
       <c r="P13">
-        <v>257.2465124142439</v>
+        <v>972.8387062286057</v>
       </c>
       <c r="Q13">
-        <v>0.5703958486501929</v>
+        <v>0.6177822662698913</v>
       </c>
       <c r="S13">
-        <v>6.03662305530585</v>
+        <v>3.030997887880419</v>
       </c>
       <c r="T13">
-        <v>0.02800945184078496</v>
+        <v>0.2491771325756686</v>
       </c>
       <c r="U13">
-        <v>1.140791697300386</v>
+        <v>1.235564532539783</v>
       </c>
       <c r="V13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31">
+        <v>75</v>
+      </c>
+      <c r="W13">
+        <v>1266.261735297152</v>
+      </c>
+      <c r="X13">
+        <v>67.31814546760738</v>
+      </c>
+      <c r="Y13">
+        <v>0.7218810099397397</v>
+      </c>
+      <c r="Z13">
+        <v>1410.525042872334</v>
+      </c>
+      <c r="AA13">
+        <v>73.93549731526726</v>
+      </c>
+      <c r="AB13">
+        <v>0.6230963650928625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37">
       <c r="A14" s="1">
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C14">
-        <v>102.7265791654986</v>
+        <v>102.8837263946893</v>
       </c>
       <c r="D14">
-        <v>1286.718307870856</v>
+        <v>1286.21214867222</v>
       </c>
       <c r="E14">
-        <v>122.5320504597999</v>
+        <v>667.1551170247636</v>
       </c>
       <c r="F14">
-        <v>1286.718307870856</v>
+        <v>1286.21219867472</v>
       </c>
       <c r="G14">
-        <v>168.0098251173116</v>
+        <v>1093.247869384328</v>
       </c>
       <c r="H14">
-        <v>0.6069227441345408</v>
+        <v>0.6740131527747047</v>
       </c>
       <c r="I14">
-        <v>1.846196946929316</v>
+        <v>2.503997378078163</v>
       </c>
       <c r="J14">
-        <v>0.1772705560722351</v>
+        <v>0.385900277100594</v>
       </c>
       <c r="K14">
-        <v>1.213845488269082</v>
+        <v>1.348026305549409</v>
       </c>
       <c r="L14" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="M14">
-        <v>1389.444887036355</v>
+        <v>1389.09597507191</v>
       </c>
       <c r="N14">
-        <v>197.0389493034565</v>
+        <v>1051.969678334737</v>
       </c>
       <c r="O14">
-        <v>1389.444887036355</v>
+        <v>1389.09592506941</v>
       </c>
       <c r="P14">
-        <v>249.6581184303026</v>
+        <v>1587.503911730585</v>
       </c>
       <c r="Q14">
-        <v>0.5639087556810333</v>
+        <v>0.6297802652464155</v>
       </c>
       <c r="S14">
-        <v>2.030623826585299</v>
+        <v>2.701517514991548</v>
       </c>
       <c r="T14">
-        <v>0.1623267476856681</v>
+        <v>0.3460828010139901</v>
       </c>
       <c r="U14">
-        <v>1.127817511362067</v>
+        <v>1.259560530492831</v>
       </c>
       <c r="V14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31">
+        <v>75</v>
+      </c>
+      <c r="W14">
+        <v>1266.00303542923</v>
+      </c>
+      <c r="X14">
+        <v>95.59364722020476</v>
+      </c>
+      <c r="Y14">
+        <v>0.8058381634104416</v>
+      </c>
+      <c r="Z14">
+        <v>1410.374815916078</v>
+      </c>
+      <c r="AA14">
+        <v>123.7572193040794</v>
+      </c>
+      <c r="AB14">
+        <v>0.7078154447886175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37">
       <c r="A15" s="1">
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C15">
-        <v>102.7275759488025</v>
+        <v>102.8792768581175</v>
       </c>
       <c r="D15">
-        <v>1286.718182617732</v>
+        <v>1286.385102175479</v>
       </c>
       <c r="E15">
-        <v>118.6411400501713</v>
+        <v>695.4981094791141</v>
       </c>
       <c r="F15">
-        <v>1286.718182617732</v>
+        <v>1286.385152177979</v>
       </c>
       <c r="G15">
-        <v>150.6534337711264</v>
+        <v>1111.228527002927</v>
       </c>
       <c r="H15">
-        <v>0.5964602100585439</v>
+        <v>0.6745455654391715</v>
       </c>
       <c r="I15">
-        <v>2.920528500473393</v>
+        <v>3.4800737167713</v>
       </c>
       <c r="J15">
-        <v>2.74608330463888E-07</v>
+        <v>0.3140711781848068</v>
       </c>
       <c r="K15">
-        <v>1.192920420117088</v>
+        <v>1.349091130878343</v>
       </c>
       <c r="L15" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="M15">
-        <v>1389.445758566535</v>
+        <v>1389.264479038597</v>
       </c>
       <c r="N15">
-        <v>194.7495802042777</v>
+        <v>1082.490952242722</v>
       </c>
       <c r="O15">
-        <v>1389.445758566535</v>
+        <v>1389.264429036097</v>
       </c>
       <c r="P15">
-        <v>240.7645839025416</v>
+        <v>1592.913488867831</v>
       </c>
       <c r="Q15">
-        <v>0.5678432263116792</v>
+        <v>0.6248979022520386</v>
       </c>
       <c r="S15">
-        <v>2.139304568508362</v>
+        <v>4.170658944932719</v>
       </c>
       <c r="T15">
-        <v>0.06463757350624377</v>
+        <v>0.2975973008035104</v>
       </c>
       <c r="U15">
-        <v>1.135686452623358</v>
+        <v>1.249795804504077</v>
       </c>
       <c r="V15" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="W15">
-        <v>1266.483830815264</v>
+        <v>1266.162490668703</v>
       </c>
       <c r="X15">
-        <v>8.158998109299452</v>
+        <v>110.4463831742524</v>
       </c>
       <c r="Y15">
-        <v>0.4552226987864352</v>
+        <v>0.8055080547490885</v>
+      </c>
+      <c r="Z15">
+        <v>1410.54264734633</v>
+      </c>
+      <c r="AA15">
+        <v>123.928081854273</v>
+      </c>
+      <c r="AB15">
+        <v>0.6955577344784901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>103.2068088974647</v>
+      </c>
+      <c r="D16">
+        <v>1285.207333206182</v>
+      </c>
+      <c r="E16">
+        <v>40.96546882551799</v>
+      </c>
+      <c r="F16">
+        <v>1285.207333206182</v>
+      </c>
+      <c r="G16">
+        <v>113.3237251742463</v>
+      </c>
+      <c r="H16">
+        <v>0.9398631373887505</v>
+      </c>
+      <c r="I16">
+        <v>1.393695866547371</v>
+      </c>
+      <c r="J16">
+        <v>0.8646112415584327</v>
+      </c>
+      <c r="K16">
+        <v>1.879726274777501</v>
+      </c>
+      <c r="L16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16">
+        <v>1388.414142103647</v>
+      </c>
+      <c r="N16">
+        <v>70.14253631426969</v>
+      </c>
+      <c r="O16">
+        <v>1388.414142103647</v>
+      </c>
+      <c r="P16">
+        <v>163.1207456007267</v>
+      </c>
+      <c r="Q16">
+        <v>0.9312578844071974</v>
+      </c>
+      <c r="S16">
+        <v>1.479037702707318</v>
+      </c>
+      <c r="T16">
+        <v>0.4534476692334495</v>
+      </c>
+      <c r="U16">
+        <v>1.862515768814395</v>
+      </c>
+      <c r="V16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17">
+        <v>103.4177296957571</v>
+      </c>
+      <c r="D17">
+        <v>1284.884120693094</v>
+      </c>
+      <c r="E17">
+        <v>546.7853029842556</v>
+      </c>
+      <c r="F17">
+        <v>1284.884170695594</v>
+      </c>
+      <c r="G17">
+        <v>1548.317199048171</v>
+      </c>
+      <c r="H17">
+        <v>1.081176161204648</v>
+      </c>
+      <c r="I17">
+        <v>2.737616335946941</v>
+      </c>
+      <c r="J17">
+        <v>0.5815786924309293</v>
+      </c>
+      <c r="K17">
+        <v>2.162352322409296</v>
+      </c>
+      <c r="L17" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17">
+        <v>1388.301950393851</v>
+      </c>
+      <c r="N17">
+        <v>1105.920631318029</v>
+      </c>
+      <c r="O17">
+        <v>1388.301900391351</v>
+      </c>
+      <c r="P17">
+        <v>2468.308696645893</v>
+      </c>
+      <c r="Q17">
+        <v>0.8464672661513467</v>
+      </c>
+      <c r="S17">
+        <v>2.993390308845284</v>
+      </c>
+      <c r="T17">
+        <v>0.5978548898296867</v>
+      </c>
+      <c r="U17">
+        <v>1.692934532302693</v>
+      </c>
+      <c r="V17" t="s">
+        <v>75</v>
+      </c>
+      <c r="W17">
+        <v>1264.795561990953</v>
+      </c>
+      <c r="X17">
+        <v>180.831660425189</v>
+      </c>
+      <c r="Y17">
+        <v>1.543085066370834</v>
+      </c>
+      <c r="Z17">
+        <v>1409.713989456894</v>
+      </c>
+      <c r="AA17">
+        <v>233.5385584329723</v>
+      </c>
+      <c r="AB17">
+        <v>1.179979155995477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18">
+        <v>103.4262766200752</v>
+      </c>
+      <c r="D18">
+        <v>1284.979678938513</v>
+      </c>
+      <c r="E18">
+        <v>2297.717676448373</v>
+      </c>
+      <c r="F18">
+        <v>1284.979728941013</v>
+      </c>
+      <c r="G18">
+        <v>6270.839677879015</v>
+      </c>
+      <c r="H18">
+        <v>1.035883915481607</v>
+      </c>
+      <c r="I18">
+        <v>6.716816830308018</v>
+      </c>
+      <c r="J18">
+        <v>0.5963661565279069</v>
+      </c>
+      <c r="K18">
+        <v>2.071767830963213</v>
+      </c>
+      <c r="L18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18">
+        <v>1388.406055563589</v>
+      </c>
+      <c r="N18">
+        <v>4440.067959746521</v>
+      </c>
+      <c r="O18">
+        <v>1388.406005561089</v>
+      </c>
+      <c r="P18">
+        <v>9840.210229185574</v>
+      </c>
+      <c r="Q18">
+        <v>0.8368572986046779</v>
+      </c>
+      <c r="S18">
+        <v>9.093110680943541</v>
+      </c>
+      <c r="T18">
+        <v>0.6088734656908471</v>
+      </c>
+      <c r="U18">
+        <v>1.673714597209356</v>
+      </c>
+      <c r="V18" t="s">
+        <v>75</v>
+      </c>
+      <c r="W18">
+        <v>1264.828418560129</v>
+      </c>
+      <c r="X18">
+        <v>703.7949589878774</v>
+      </c>
+      <c r="Y18">
+        <v>1.521048375809261</v>
+      </c>
+      <c r="Z18">
+        <v>1409.785776053227</v>
+      </c>
+      <c r="AA18">
+        <v>1036.059562470629</v>
+      </c>
+      <c r="AB18">
+        <v>1.212981363472004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19">
+        <v>102.7519547489835</v>
+      </c>
+      <c r="D19">
+        <v>1286.640249459552</v>
+      </c>
+      <c r="E19">
+        <v>751.1712012509067</v>
+      </c>
+      <c r="F19">
+        <v>1286.640299462052</v>
+      </c>
+      <c r="G19">
+        <v>1063.823909888745</v>
+      </c>
+      <c r="H19">
+        <v>0.6156391774485854</v>
+      </c>
+      <c r="I19">
+        <v>3.068714848321926</v>
+      </c>
+      <c r="J19">
+        <v>0.2312955971150803</v>
+      </c>
+      <c r="K19">
+        <v>1.231278354897171</v>
+      </c>
+      <c r="L19" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19">
+        <v>1389.392254211036</v>
+      </c>
+      <c r="N19">
+        <v>1181.135345770139</v>
+      </c>
+      <c r="O19">
+        <v>1389.392254211036</v>
+      </c>
+      <c r="P19">
+        <v>1584.770072863592</v>
+      </c>
+      <c r="Q19">
+        <v>0.5888374884484987</v>
+      </c>
+      <c r="S19">
+        <v>4.710191755403165</v>
+      </c>
+      <c r="T19">
+        <v>0.2053689460488974</v>
+      </c>
+      <c r="U19">
+        <v>1.177674976896997</v>
+      </c>
+      <c r="V19" t="s">
+        <v>75</v>
+      </c>
+      <c r="W19">
+        <v>1266.296024564392</v>
+      </c>
+      <c r="X19">
+        <v>95.67198247718271</v>
+      </c>
+      <c r="Y19">
+        <v>0.6556322728385605</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20">
+        <v>102.7539869089544</v>
+      </c>
+      <c r="D20">
+        <v>1286.643904557229</v>
+      </c>
+      <c r="E20">
+        <v>643.4721001218878</v>
+      </c>
+      <c r="F20">
+        <v>1286.643904557229</v>
+      </c>
+      <c r="G20">
+        <v>897.1698084955443</v>
+      </c>
+      <c r="H20">
+        <v>0.6174518838380347</v>
+      </c>
+      <c r="I20">
+        <v>2.615535897895797</v>
+      </c>
+      <c r="J20">
+        <v>0.1774472363328775</v>
+      </c>
+      <c r="K20">
+        <v>1.234903767676069</v>
+      </c>
+      <c r="L20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20">
+        <v>1389.397941468684</v>
+      </c>
+      <c r="N20">
+        <v>1010.468257874564</v>
+      </c>
+      <c r="O20">
+        <v>1389.397891466184</v>
+      </c>
+      <c r="P20">
+        <v>1344.804834741918</v>
+      </c>
+      <c r="Q20">
+        <v>0.5872270970014211</v>
+      </c>
+      <c r="S20">
+        <v>2.289603282756384</v>
+      </c>
+      <c r="T20">
+        <v>0.1881628463112566</v>
+      </c>
+      <c r="U20">
+        <v>1.174454194002842</v>
+      </c>
+      <c r="V20" t="s">
+        <v>75</v>
+      </c>
+      <c r="W20">
+        <v>1266.358766311006</v>
+      </c>
+      <c r="X20">
+        <v>72.16305169514789</v>
+      </c>
+      <c r="Y20">
+        <v>0.6882911928230835</v>
+      </c>
+      <c r="Z20">
+        <v>1410.614600478672</v>
+      </c>
+      <c r="AA20">
+        <v>123.6473170346436</v>
+      </c>
+      <c r="AB20">
+        <v>0.6115761268770387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21">
+        <v>102.7589496626842</v>
+      </c>
+      <c r="D21">
+        <v>1286.652523583595</v>
+      </c>
+      <c r="E21">
+        <v>515.9235368735787</v>
+      </c>
+      <c r="F21">
+        <v>1286.652573586095</v>
+      </c>
+      <c r="G21">
+        <v>705.2727051732163</v>
+      </c>
+      <c r="H21">
+        <v>0.6026770287970085</v>
+      </c>
+      <c r="I21">
+        <v>2.165698167018896</v>
+      </c>
+      <c r="J21">
+        <v>0.1905499831669704</v>
+      </c>
+      <c r="K21">
+        <v>1.205354057594017</v>
+      </c>
+      <c r="L21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21">
+        <v>1389.41157325128</v>
+      </c>
+      <c r="N21">
+        <v>791.0423471121459</v>
+      </c>
+      <c r="O21">
+        <v>1389.41152324878</v>
+      </c>
+      <c r="P21">
+        <v>1043.674269782279</v>
+      </c>
+      <c r="Q21">
+        <v>0.5878641799978014</v>
+      </c>
+      <c r="S21">
+        <v>2.121381707262755</v>
+      </c>
+      <c r="T21">
+        <v>0.1595378367287257</v>
+      </c>
+      <c r="U21">
+        <v>1.175728359995603</v>
+      </c>
+      <c r="V21" t="s">
+        <v>75</v>
+      </c>
+      <c r="W21">
+        <v>1266.369864364148</v>
+      </c>
+      <c r="X21">
+        <v>54.75060828187376</v>
+      </c>
+      <c r="Y21">
+        <v>0.6502839606538815</v>
+      </c>
+      <c r="Z21">
+        <v>1410.642532368473</v>
+      </c>
+      <c r="AA21">
+        <v>93.68600745444576</v>
+      </c>
+      <c r="AB21">
+        <v>0.5910532892351286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22">
+        <v>102.7471549958348</v>
+      </c>
+      <c r="D22">
+        <v>1286.664009674761</v>
+      </c>
+      <c r="E22">
+        <v>370.5210662250418</v>
+      </c>
+      <c r="F22">
+        <v>1286.664009674761</v>
+      </c>
+      <c r="G22">
+        <v>494.9973435024224</v>
+      </c>
+      <c r="H22">
+        <v>0.6104305606396574</v>
+      </c>
+      <c r="I22">
+        <v>2.00290333963851</v>
+      </c>
+      <c r="J22">
+        <v>0.08448772160913709</v>
+      </c>
+      <c r="K22">
+        <v>1.220861121279315</v>
+      </c>
+      <c r="L22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M22">
+        <v>1389.411214673096</v>
+      </c>
+      <c r="N22">
+        <v>578.0382266876351</v>
+      </c>
+      <c r="O22">
+        <v>1389.411164670596</v>
+      </c>
+      <c r="P22">
+        <v>758.3829482030379</v>
+      </c>
+      <c r="Q22">
+        <v>0.5826426402205878</v>
+      </c>
+      <c r="S22">
+        <v>2.125189050854129</v>
+      </c>
+      <c r="T22">
+        <v>0.1692828774520459</v>
+      </c>
+      <c r="U22">
+        <v>1.165285280441176</v>
+      </c>
+      <c r="V22" t="s">
+        <v>75</v>
+      </c>
+      <c r="W22">
+        <v>1266.349924728095</v>
+      </c>
+      <c r="X22">
+        <v>33.24020243481209</v>
+      </c>
+      <c r="Y22">
+        <v>0.5821967458371813</v>
+      </c>
+      <c r="Z22">
+        <v>1410.638414438197</v>
+      </c>
+      <c r="AA22">
+        <v>67.70436122787888</v>
+      </c>
+      <c r="AB22">
+        <v>0.5954861680194304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23">
+        <v>102.7259527783895</v>
+      </c>
+      <c r="D23">
+        <v>1286.691103044615</v>
+      </c>
+      <c r="E23">
+        <v>259.4842842733445</v>
+      </c>
+      <c r="F23">
+        <v>1286.691103044615</v>
+      </c>
+      <c r="G23">
+        <v>351.666984018784</v>
+      </c>
+      <c r="H23">
+        <v>0.5973628446102073</v>
+      </c>
+      <c r="I23">
+        <v>2.297960270231521</v>
+      </c>
+      <c r="J23">
+        <v>0.1914260206853494</v>
+      </c>
+      <c r="K23">
+        <v>1.194725689220415</v>
+      </c>
+      <c r="L23" t="s">
+        <v>75</v>
+      </c>
+      <c r="M23">
+        <v>1389.417055823004</v>
+      </c>
+      <c r="N23">
+        <v>403.8490535494657</v>
+      </c>
+      <c r="O23">
+        <v>1389.417055823004</v>
+      </c>
+      <c r="P23">
+        <v>522.7376798395259</v>
+      </c>
+      <c r="Q23">
+        <v>0.5793565847892417</v>
+      </c>
+      <c r="S23">
+        <v>2.411084531485796</v>
+      </c>
+      <c r="T23">
+        <v>0.1471760646873876</v>
+      </c>
+      <c r="U23">
+        <v>1.158713169578483</v>
+      </c>
+      <c r="V23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24">
+        <v>102.7262849743549</v>
+      </c>
+      <c r="D24">
+        <v>1286.691036768748</v>
+      </c>
+      <c r="E24">
+        <v>254.5817757240008</v>
+      </c>
+      <c r="F24">
+        <v>1286.691036768748</v>
+      </c>
+      <c r="G24">
+        <v>330.2502297000115</v>
+      </c>
+      <c r="H24">
+        <v>0.606244907272107</v>
+      </c>
+      <c r="I24">
+        <v>2.253946828037554</v>
+      </c>
+      <c r="J24">
+        <v>0.01571478349868555</v>
+      </c>
+      <c r="K24">
+        <v>1.212489814544214</v>
+      </c>
+      <c r="L24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24">
+        <v>1389.417321743103</v>
+      </c>
+      <c r="N24">
+        <v>402.0599120909443</v>
+      </c>
+      <c r="O24">
+        <v>1389.417321743103</v>
+      </c>
+      <c r="P24">
+        <v>515.6746703367132</v>
+      </c>
+      <c r="Q24">
+        <v>0.581315661316212</v>
+      </c>
+      <c r="S24">
+        <v>1.920415220420139</v>
+      </c>
+      <c r="T24">
+        <v>0.1088439342970421</v>
+      </c>
+      <c r="U24">
+        <v>1.162631322632424</v>
+      </c>
+      <c r="V24" t="s">
+        <v>75</v>
+      </c>
+      <c r="W24">
+        <v>1266.361556631636</v>
+      </c>
+      <c r="X24">
+        <v>27.45907334799979</v>
+      </c>
+      <c r="Y24">
+        <v>0.6474500454387444</v>
+      </c>
+      <c r="Z24">
+        <v>1410.682797188216</v>
+      </c>
+      <c r="AA24">
+        <v>47.11542503403953</v>
+      </c>
+      <c r="AB24">
+        <v>0.5891155892062048</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25">
+        <v>102.7406819330581</v>
+      </c>
+      <c r="D25">
+        <v>1286.696299402276</v>
+      </c>
+      <c r="E25">
+        <v>185.2176379247869</v>
+      </c>
+      <c r="F25">
+        <v>1286.696299402276</v>
+      </c>
+      <c r="G25">
+        <v>259.4350214658248</v>
+      </c>
+      <c r="H25">
+        <v>0.6007423344932654</v>
+      </c>
+      <c r="I25">
+        <v>2.509022596714813</v>
+      </c>
+      <c r="J25">
+        <v>0.2681352078343062</v>
+      </c>
+      <c r="K25">
+        <v>1.201484668986531</v>
+      </c>
+      <c r="L25" t="s">
+        <v>75</v>
+      </c>
+      <c r="M25">
+        <v>1389.436981335334</v>
+      </c>
+      <c r="N25">
+        <v>291.5908389496166</v>
+      </c>
+      <c r="O25">
+        <v>1389.436981335334</v>
+      </c>
+      <c r="P25">
+        <v>384.8847588651357</v>
+      </c>
+      <c r="Q25">
+        <v>0.5797241407796998</v>
+      </c>
+      <c r="S25">
+        <v>2.577522578094699</v>
+      </c>
+      <c r="T25">
+        <v>0.2013912849867782</v>
+      </c>
+      <c r="U25">
+        <v>1.1594482815594</v>
+      </c>
+      <c r="V25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26">
+        <v>102.740276408028</v>
+      </c>
+      <c r="D26">
+        <v>1286.697280208701</v>
+      </c>
+      <c r="E26">
+        <v>179.7542214272628</v>
+      </c>
+      <c r="F26">
+        <v>1286.697280208701</v>
+      </c>
+      <c r="G26">
+        <v>235.0851424140647</v>
+      </c>
+      <c r="H26">
+        <v>0.6143015382961168</v>
+      </c>
+      <c r="I26">
+        <v>3.138013921946621</v>
+      </c>
+      <c r="J26">
+        <v>1.623818348944761E-05</v>
+      </c>
+      <c r="K26">
+        <v>1.228603076592234</v>
+      </c>
+      <c r="L26" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26">
+        <v>1389.437556616729</v>
+      </c>
+      <c r="N26">
+        <v>289.4268158140032</v>
+      </c>
+      <c r="O26">
+        <v>1389.437556616729</v>
+      </c>
+      <c r="P26">
+        <v>375.4225954333854</v>
+      </c>
+      <c r="Q26">
+        <v>0.5832405692947725</v>
+      </c>
+      <c r="S26">
+        <v>2.388125704627161</v>
+      </c>
+      <c r="T26">
+        <v>0.1326042991333223</v>
+      </c>
+      <c r="U26">
+        <v>1.166481138589545</v>
+      </c>
+      <c r="V26" t="s">
+        <v>75</v>
+      </c>
+      <c r="W26">
+        <v>1266.35425601918</v>
+      </c>
+      <c r="X26">
+        <v>15.73253090509425</v>
+      </c>
+      <c r="Y26">
+        <v>0.4902694768720508</v>
+      </c>
+      <c r="Z26">
+        <v>1410.66256558848</v>
+      </c>
+      <c r="AA26">
+        <v>27.73679130366358</v>
+      </c>
+      <c r="AB26">
+        <v>0.5231155121398733</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27">
+        <v>102.7366238419224</v>
+      </c>
+      <c r="D27">
+        <v>1286.687148262489</v>
+      </c>
+      <c r="E27">
+        <v>254.3428406815216</v>
+      </c>
+      <c r="F27">
+        <v>1286.687148262489</v>
+      </c>
+      <c r="G27">
+        <v>347.3038390270223</v>
+      </c>
+      <c r="H27">
+        <v>0.579053487666078</v>
+      </c>
+      <c r="I27">
+        <v>3.115322614542273</v>
+      </c>
+      <c r="J27">
+        <v>0.3019932788242776</v>
+      </c>
+      <c r="K27">
+        <v>1.158106975332156</v>
+      </c>
+      <c r="L27" t="s">
+        <v>75</v>
+      </c>
+      <c r="M27">
+        <v>1389.423772104412</v>
+      </c>
+      <c r="N27">
+        <v>387.2679227699637</v>
+      </c>
+      <c r="O27">
+        <v>1389.423772104412</v>
+      </c>
+      <c r="P27">
+        <v>499.6360382708007</v>
+      </c>
+      <c r="Q27">
+        <v>0.5833825274731443</v>
+      </c>
+      <c r="S27">
+        <v>2.997262089017076</v>
+      </c>
+      <c r="T27">
+        <v>0.1164581793622932</v>
+      </c>
+      <c r="U27">
+        <v>1.166765054946289</v>
+      </c>
+      <c r="V27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28">
+        <v>102.7344330216745</v>
+      </c>
+      <c r="D28">
+        <v>1286.689639274296</v>
+      </c>
+      <c r="E28">
+        <v>244.9656159186697</v>
+      </c>
+      <c r="F28">
+        <v>1286.689639274296</v>
+      </c>
+      <c r="G28">
+        <v>309.6725641380852</v>
+      </c>
+      <c r="H28">
+        <v>0.593783774923293</v>
+      </c>
+      <c r="I28">
+        <v>3.747526138107466</v>
+      </c>
+      <c r="J28">
+        <v>5.047459952400857E-05</v>
+      </c>
+      <c r="K28">
+        <v>1.187567549846586</v>
+      </c>
+      <c r="L28" t="s">
+        <v>75</v>
+      </c>
+      <c r="M28">
+        <v>1389.42412229847</v>
+      </c>
+      <c r="N28">
+        <v>384.6892889928871</v>
+      </c>
+      <c r="O28">
+        <v>1389.42407229597</v>
+      </c>
+      <c r="P28">
+        <v>488.6076370044171</v>
+      </c>
+      <c r="Q28">
+        <v>0.5863280571700812</v>
+      </c>
+      <c r="S28">
+        <v>2.588672699472998</v>
+      </c>
+      <c r="T28">
+        <v>0.05344712098631155</v>
+      </c>
+      <c r="U28">
+        <v>1.172656114340162</v>
+      </c>
+      <c r="V28" t="s">
+        <v>75</v>
+      </c>
+      <c r="W28">
+        <v>1266.094857725931</v>
+      </c>
+      <c r="X28">
+        <v>18.83004430506328</v>
+      </c>
+      <c r="Y28">
+        <v>0.6940405575947902</v>
+      </c>
+      <c r="Z28">
+        <v>1410.673869019136</v>
+      </c>
+      <c r="AA28">
+        <v>40.13689036829416</v>
+      </c>
+      <c r="AB28">
+        <v>0.5632519740578643</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29">
+        <v>102.7603084095458</v>
+      </c>
+      <c r="D29">
+        <v>1286.67518595655</v>
+      </c>
+      <c r="E29">
+        <v>223.7098439476711</v>
+      </c>
+      <c r="F29">
+        <v>1286.67518595655</v>
+      </c>
+      <c r="G29">
+        <v>293.2991031292635</v>
+      </c>
+      <c r="H29">
+        <v>0.6014432449751086</v>
+      </c>
+      <c r="I29">
+        <v>3.205208179944595</v>
+      </c>
+      <c r="J29">
+        <v>0.09727554172153424</v>
+      </c>
+      <c r="K29">
+        <v>1.202886489950217</v>
+      </c>
+      <c r="L29" t="s">
+        <v>75</v>
+      </c>
+      <c r="M29">
+        <v>1389.435494366096</v>
+      </c>
+      <c r="N29">
+        <v>352.3205598967206</v>
+      </c>
+      <c r="O29">
+        <v>1389.435494366096</v>
+      </c>
+      <c r="P29">
+        <v>456.985670354223</v>
+      </c>
+      <c r="Q29">
+        <v>0.5796967354934039</v>
+      </c>
+      <c r="S29">
+        <v>3.161226221523987</v>
+      </c>
+      <c r="T29">
+        <v>0.151094500176192</v>
+      </c>
+      <c r="U29">
+        <v>1.159393470986808</v>
+      </c>
+      <c r="V29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30">
+        <v>102.760788558561</v>
+      </c>
+      <c r="D30">
+        <v>1286.675320712291</v>
+      </c>
+      <c r="E30">
+        <v>219.5954656999658</v>
+      </c>
+      <c r="F30">
+        <v>1286.675370714791</v>
+      </c>
+      <c r="G30">
+        <v>283.0292159326088</v>
+      </c>
+      <c r="H30">
+        <v>0.6036477869156609</v>
+      </c>
+      <c r="I30">
+        <v>2.948990584458398</v>
+      </c>
+      <c r="J30">
+        <v>0.009002398428168579</v>
+      </c>
+      <c r="K30">
+        <v>1.207295573831322</v>
+      </c>
+      <c r="L30" t="s">
+        <v>75</v>
+      </c>
+      <c r="M30">
+        <v>1389.436159273352</v>
+      </c>
+      <c r="N30">
+        <v>347.8915503404345</v>
+      </c>
+      <c r="O30">
+        <v>1389.436159273352</v>
+      </c>
+      <c r="P30">
+        <v>437.7522854242722</v>
+      </c>
+      <c r="Q30">
+        <v>0.5849101268963841</v>
+      </c>
+      <c r="S30">
+        <v>2.908520013610325</v>
+      </c>
+      <c r="T30">
+        <v>0.03221380806714347</v>
+      </c>
+      <c r="U30">
+        <v>1.169820253792768</v>
+      </c>
+      <c r="V30" t="s">
+        <v>75</v>
+      </c>
+      <c r="W30">
+        <v>1266.533725801777</v>
+      </c>
+      <c r="X30">
+        <v>17.07491638109117</v>
+      </c>
+      <c r="Y30">
+        <v>0.3741289298447878</v>
+      </c>
+      <c r="Z30">
+        <v>1410.54617059619</v>
+      </c>
+      <c r="AA30">
+        <v>35.32930386984697</v>
+      </c>
+      <c r="AB30">
+        <v>0.4978462865896865</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" s="1">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31">
+        <v>102.7587316640256</v>
+      </c>
+      <c r="D31">
+        <v>1286.683805716073</v>
+      </c>
+      <c r="E31">
+        <v>190.1163115133039</v>
+      </c>
+      <c r="F31">
+        <v>1286.683805716073</v>
+      </c>
+      <c r="G31">
+        <v>270.5239175946973</v>
+      </c>
+      <c r="H31">
+        <v>0.6081708525655138</v>
+      </c>
+      <c r="I31">
+        <v>2.532876468945307</v>
+      </c>
+      <c r="J31">
+        <v>0.2806463553587518</v>
+      </c>
+      <c r="K31">
+        <v>1.216341705131028</v>
+      </c>
+      <c r="L31" t="s">
+        <v>75</v>
+      </c>
+      <c r="M31">
+        <v>1389.442537380098</v>
+      </c>
+      <c r="N31">
+        <v>306.1420714643974</v>
+      </c>
+      <c r="O31">
+        <v>1389.442537380098</v>
+      </c>
+      <c r="P31">
+        <v>391.5477491226392</v>
+      </c>
+      <c r="Q31">
+        <v>0.5789752754344444</v>
+      </c>
+      <c r="S31">
+        <v>3.305151460594516</v>
+      </c>
+      <c r="T31">
+        <v>0.1130706245545068</v>
+      </c>
+      <c r="U31">
+        <v>1.157950550868889</v>
+      </c>
+      <c r="V31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" s="1">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32">
+        <v>102.759378631742</v>
+      </c>
+      <c r="D32">
+        <v>1286.683821266551</v>
+      </c>
+      <c r="E32">
+        <v>183.434307261406</v>
+      </c>
+      <c r="F32">
+        <v>1286.683821266551</v>
+      </c>
+      <c r="G32">
+        <v>239.8639920711001</v>
+      </c>
+      <c r="H32">
+        <v>0.6142170570675107</v>
+      </c>
+      <c r="I32">
+        <v>3.215823634098109</v>
+      </c>
+      <c r="J32">
+        <v>2.948876107689014E-06</v>
+      </c>
+      <c r="K32">
+        <v>1.228434114135021</v>
+      </c>
+      <c r="L32" t="s">
+        <v>75</v>
+      </c>
+      <c r="M32">
+        <v>1389.443199898293</v>
+      </c>
+      <c r="N32">
+        <v>302.0056941339688</v>
+      </c>
+      <c r="O32">
+        <v>1389.443199898293</v>
+      </c>
+      <c r="P32">
+        <v>375.3382834883801</v>
+      </c>
+      <c r="Q32">
+        <v>0.5829446293538488</v>
+      </c>
+      <c r="S32">
+        <v>3.463255012516905</v>
+      </c>
+      <c r="T32">
+        <v>5.098845621831494E-07</v>
+      </c>
+      <c r="U32">
+        <v>1.165889258707698</v>
+      </c>
+      <c r="V32" t="s">
+        <v>75</v>
+      </c>
+      <c r="W32">
+        <v>1266.376654605925</v>
+      </c>
+      <c r="X32">
+        <v>18.428648419868</v>
+      </c>
+      <c r="Y32">
+        <v>0.5585635589113647</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="A33" s="1">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33">
+        <v>102.7277462526908</v>
+      </c>
+      <c r="D33">
+        <v>1286.707530712014</v>
+      </c>
+      <c r="E33">
+        <v>159.8271195719855</v>
+      </c>
+      <c r="F33">
+        <v>1286.707530712014</v>
+      </c>
+      <c r="G33">
+        <v>222.7454773158687</v>
+      </c>
+      <c r="H33">
+        <v>0.6300271516464419</v>
+      </c>
+      <c r="I33">
+        <v>2.620204016715137</v>
+      </c>
+      <c r="J33">
+        <v>0.1149653195602952</v>
+      </c>
+      <c r="K33">
+        <v>1.260054303292884</v>
+      </c>
+      <c r="L33" t="s">
+        <v>75</v>
+      </c>
+      <c r="M33">
+        <v>1389.435276964704</v>
+      </c>
+      <c r="N33">
+        <v>266.7658443637341</v>
+      </c>
+      <c r="O33">
+        <v>1389.435276964704</v>
+      </c>
+      <c r="P33">
+        <v>332.7705591660604</v>
+      </c>
+      <c r="Q33">
+        <v>0.569904042598829</v>
+      </c>
+      <c r="S33">
+        <v>2.776481904451632</v>
+      </c>
+      <c r="T33">
+        <v>0.08453819277805619</v>
+      </c>
+      <c r="U33">
+        <v>1.139808085197658</v>
+      </c>
+      <c r="V33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34">
+        <v>102.7277284994282</v>
+      </c>
+      <c r="D34">
+        <v>1286.707652537856</v>
+      </c>
+      <c r="E34">
+        <v>156.0746938684411</v>
+      </c>
+      <c r="F34">
+        <v>1286.707652537856</v>
+      </c>
+      <c r="G34">
+        <v>208.5873413253267</v>
+      </c>
+      <c r="H34">
+        <v>0.6245112392011267</v>
+      </c>
+      <c r="I34">
+        <v>3.075347883604775</v>
+      </c>
+      <c r="J34">
+        <v>2.863385084594938E-10</v>
+      </c>
+      <c r="K34">
+        <v>1.249022478402253</v>
+      </c>
+      <c r="L34" t="s">
+        <v>75</v>
+      </c>
+      <c r="M34">
+        <v>1389.435431039784</v>
+      </c>
+      <c r="N34">
+        <v>263.9659460085023</v>
+      </c>
+      <c r="O34">
+        <v>1389.435381037284</v>
+      </c>
+      <c r="P34">
+        <v>320.7282986118468</v>
+      </c>
+      <c r="Q34">
+        <v>0.5707345935583775</v>
+      </c>
+      <c r="S34">
+        <v>2.917979134012724</v>
+      </c>
+      <c r="T34">
+        <v>3.700268580431043E-08</v>
+      </c>
+      <c r="U34">
+        <v>1.141469187116755</v>
+      </c>
+      <c r="V34" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z34">
+        <v>1410.641591417197</v>
+      </c>
+      <c r="AA34">
+        <v>24.90065763910691</v>
+      </c>
+      <c r="AB34">
+        <v>0.2425400039884434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35">
+        <v>102.7279618714883</v>
+      </c>
+      <c r="D35">
+        <v>1286.714472017189</v>
+      </c>
+      <c r="E35">
+        <v>133.0424339732548</v>
+      </c>
+      <c r="F35">
+        <v>1286.714472017189</v>
+      </c>
+      <c r="G35">
+        <v>177.1361038788572</v>
+      </c>
+      <c r="H35">
+        <v>0.6281168570581369</v>
+      </c>
+      <c r="I35">
+        <v>2.591408326956898</v>
+      </c>
+      <c r="J35">
+        <v>1.053528864147779E-07</v>
+      </c>
+      <c r="K35">
+        <v>1.256233714116274</v>
+      </c>
+      <c r="L35" t="s">
+        <v>75</v>
+      </c>
+      <c r="M35">
+        <v>1389.442433888678</v>
+      </c>
+      <c r="N35">
+        <v>239.2275843295054</v>
+      </c>
+      <c r="O35">
+        <v>1389.442433888678</v>
+      </c>
+      <c r="P35">
+        <v>302.9373449077883</v>
+      </c>
+      <c r="Q35">
+        <v>0.5076565555970747</v>
+      </c>
+      <c r="S35">
+        <v>2.563203897996335</v>
+      </c>
+      <c r="T35">
+        <v>0.4525761798706721</v>
+      </c>
+      <c r="U35">
+        <v>1.015313111194149</v>
+      </c>
+      <c r="V35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36">
+        <v>102.7297600582879</v>
+      </c>
+      <c r="D36">
+        <v>1286.713951483544</v>
+      </c>
+      <c r="E36">
+        <v>131.1319103138115</v>
+      </c>
+      <c r="F36">
+        <v>1286.714001486044</v>
+      </c>
+      <c r="G36">
+        <v>171.7996527030858</v>
+      </c>
+      <c r="H36">
+        <v>0.6153917664848096</v>
+      </c>
+      <c r="I36">
+        <v>3.031680002230994</v>
+      </c>
+      <c r="J36">
+        <v>3.112718327535902E-08</v>
+      </c>
+      <c r="K36">
+        <v>1.230783532969619</v>
+      </c>
+      <c r="L36" t="s">
+        <v>75</v>
+      </c>
+      <c r="M36">
+        <v>1389.443761544332</v>
+      </c>
+      <c r="N36">
+        <v>235.11589256626</v>
+      </c>
+      <c r="O36">
+        <v>1389.443761544332</v>
+      </c>
+      <c r="P36">
+        <v>289.8561417851655</v>
+      </c>
+      <c r="Q36">
+        <v>0.5164625535588356</v>
+      </c>
+      <c r="S36">
+        <v>2.608072332473038</v>
+      </c>
+      <c r="T36">
+        <v>0.3354605896983628</v>
+      </c>
+      <c r="U36">
+        <v>1.032925107117671</v>
+      </c>
+      <c r="V36" t="s">
+        <v>75</v>
+      </c>
+      <c r="W36">
+        <v>1266.456268218036</v>
+      </c>
+      <c r="X36">
+        <v>12.53182370980283</v>
+      </c>
+      <c r="Y36">
+        <v>0.444652849299435</v>
+      </c>
+      <c r="Z36">
+        <v>1410.669144409741</v>
+      </c>
+      <c r="AA36">
+        <v>23.11230866466558</v>
+      </c>
+      <c r="AB36">
+        <v>0.53967252025697</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37">
+        <v>102.7589453680246</v>
+      </c>
+      <c r="D37">
+        <v>1286.68787220267</v>
+      </c>
+      <c r="E37">
+        <v>129.6902417946832</v>
+      </c>
+      <c r="F37">
+        <v>1286.68787220267</v>
+      </c>
+      <c r="G37">
+        <v>172.1608609450515</v>
+      </c>
+      <c r="H37">
+        <v>0.5977136899478392</v>
+      </c>
+      <c r="I37">
+        <v>2.071221261555484</v>
+      </c>
+      <c r="J37">
+        <v>0.1280074979452731</v>
+      </c>
+      <c r="K37">
+        <v>1.195427379895678</v>
+      </c>
+      <c r="L37" t="s">
+        <v>75</v>
+      </c>
+      <c r="M37">
+        <v>1389.446817570695</v>
+      </c>
+      <c r="N37">
+        <v>211.3187846485023</v>
+      </c>
+      <c r="O37">
+        <v>1389.446817570695</v>
+      </c>
+      <c r="P37">
+        <v>257.2467638383698</v>
+      </c>
+      <c r="Q37">
+        <v>0.5703953703388432</v>
+      </c>
+      <c r="S37">
+        <v>6.036621646755712</v>
+      </c>
+      <c r="T37">
+        <v>0.02801355581460013</v>
+      </c>
+      <c r="U37">
+        <v>1.140790740677686</v>
+      </c>
+      <c r="V37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38">
+        <v>102.7571410822409</v>
+      </c>
+      <c r="D38">
+        <v>1286.687356149787</v>
+      </c>
+      <c r="E38">
+        <v>126.4544828447947</v>
+      </c>
+      <c r="F38">
+        <v>1286.687406152287</v>
+      </c>
+      <c r="G38">
+        <v>158.1417725505837</v>
+      </c>
+      <c r="H38">
+        <v>0.587421939264713</v>
+      </c>
+      <c r="I38">
+        <v>2.955452649659161</v>
+      </c>
+      <c r="J38">
+        <v>1.311983616192336E-08</v>
+      </c>
+      <c r="K38">
+        <v>1.174843878529426</v>
+      </c>
+      <c r="L38" t="s">
+        <v>75</v>
+      </c>
+      <c r="M38">
+        <v>1389.444597237028</v>
+      </c>
+      <c r="N38">
+        <v>213.9321181937923</v>
+      </c>
+      <c r="O38">
+        <v>1389.444547234528</v>
+      </c>
+      <c r="P38">
+        <v>274.3736457633365</v>
+      </c>
+      <c r="Q38">
+        <v>0.5596001658864298</v>
+      </c>
+      <c r="S38">
+        <v>2.44050237796547</v>
+      </c>
+      <c r="T38">
+        <v>0.2206721207684967</v>
+      </c>
+      <c r="U38">
+        <v>1.11920033177286</v>
+      </c>
+      <c r="V38" t="s">
+        <v>75</v>
+      </c>
+      <c r="W38">
+        <v>1266.481547219522</v>
+      </c>
+      <c r="X38">
+        <v>10.61966058393229</v>
+      </c>
+      <c r="Y38">
+        <v>0.5448681835058078</v>
+      </c>
+      <c r="Z38">
+        <v>1409.418474082183</v>
+      </c>
+      <c r="AA38">
+        <v>250.6740032226962</v>
+      </c>
+      <c r="AB38">
+        <v>0.2514901718185379</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39" s="1">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39">
+        <v>102.7266230471266</v>
+      </c>
+      <c r="D39">
+        <v>1286.718302725035</v>
+      </c>
+      <c r="E39">
+        <v>122.53213809492</v>
+      </c>
+      <c r="F39">
+        <v>1286.718302725035</v>
+      </c>
+      <c r="G39">
+        <v>168.0095310900822</v>
+      </c>
+      <c r="H39">
+        <v>0.6069218864202721</v>
+      </c>
+      <c r="I39">
+        <v>1.846188865050529</v>
+      </c>
+      <c r="J39">
+        <v>0.1772675223840239</v>
+      </c>
+      <c r="K39">
+        <v>1.213843772840544</v>
+      </c>
+      <c r="L39" t="s">
+        <v>75</v>
+      </c>
+      <c r="M39">
+        <v>1389.444925772161</v>
+      </c>
+      <c r="N39">
+        <v>197.037553724474</v>
+      </c>
+      <c r="O39">
+        <v>1389.444925772161</v>
+      </c>
+      <c r="P39">
+        <v>249.6551857105823</v>
+      </c>
+      <c r="Q39">
+        <v>0.5639158611523324</v>
+      </c>
+      <c r="S39">
+        <v>2.030618643664515</v>
+      </c>
+      <c r="T39">
+        <v>0.1622762312622634</v>
+      </c>
+      <c r="U39">
+        <v>1.127831722304665</v>
+      </c>
+      <c r="V39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40" s="1">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40">
+        <v>102.7275715634187</v>
+      </c>
+      <c r="D40">
+        <v>1286.718187678102</v>
+      </c>
+      <c r="E40">
+        <v>118.6411758077975</v>
+      </c>
+      <c r="F40">
+        <v>1286.718187678102</v>
+      </c>
+      <c r="G40">
+        <v>150.6536036517748</v>
+      </c>
+      <c r="H40">
+        <v>0.5964601398626764</v>
+      </c>
+      <c r="I40">
+        <v>2.920537659283923</v>
+      </c>
+      <c r="J40">
+        <v>3.202942363222938E-06</v>
+      </c>
+      <c r="K40">
+        <v>1.192920279725353</v>
+      </c>
+      <c r="L40" t="s">
+        <v>75</v>
+      </c>
+      <c r="M40">
+        <v>1389.445759241521</v>
+      </c>
+      <c r="N40">
+        <v>194.7497781023694</v>
+      </c>
+      <c r="O40">
+        <v>1389.445759241521</v>
+      </c>
+      <c r="P40">
+        <v>240.7649247946079</v>
+      </c>
+      <c r="Q40">
+        <v>0.5678421359958108</v>
+      </c>
+      <c r="S40">
+        <v>2.139305186423339</v>
+      </c>
+      <c r="T40">
+        <v>0.06464459449213872</v>
+      </c>
+      <c r="U40">
+        <v>1.135684271991622</v>
+      </c>
+      <c r="V40" t="s">
+        <v>75</v>
+      </c>
+      <c r="W40">
+        <v>1266.48353088915</v>
+      </c>
+      <c r="X40">
+        <v>8.161097331185479</v>
+      </c>
+      <c r="Y40">
+        <v>0.4554467044612961</v>
       </c>
     </row>
   </sheetData>
